--- a/data/trans_orig/P33_MIN_2023_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P33_MIN_2023_R-Dificultad-trans_orig.xlsx
@@ -563,7 +563,7 @@
         <v>44.25311460931762</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>41.42766761271601</v>
+        <v>41.427667612716</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>42.80003625669805</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>38.53114644152282</v>
+        <v>38.45310424613958</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>36.39725749480559</v>
+        <v>36.70265507504458</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>38.8765430394356</v>
+        <v>38.89086250714901</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>50.52015274212099</v>
+        <v>50.48468303382135</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>46.30666107558002</v>
+        <v>46.77413968586733</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>46.60561811075714</v>
+        <v>46.66397014777046</v>
       </c>
     </row>
     <row r="7">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>42.29160881550746</v>
+        <v>42.29160881550747</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>37.47000518476921</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>38.12559391030764</v>
+        <v>37.83373072196176</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>34.36106011096107</v>
+        <v>34.3454339073665</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>37.18988090898458</v>
+        <v>36.98252175002958</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>47.58704236036073</v>
+        <v>47.71570363912023</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>41.22621883069092</v>
+        <v>41.1632976561327</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>43.32430870203477</v>
+        <v>42.84171851652186</v>
       </c>
     </row>
     <row r="10">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>38.90140409169499</v>
+        <v>38.90140409169498</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>40.46525151553593</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>34.77286685682247</v>
+        <v>34.36633596289789</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>35.41098806501646</v>
+        <v>35.13115894986698</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>36.08155020561928</v>
+        <v>36.31718568093611</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>43.9596164615124</v>
+        <v>44.09084484006102</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>48.86567406276126</v>
+        <v>49.40899822574713</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>43.87762366441918</v>
+        <v>44.77217564018151</v>
       </c>
     </row>
     <row r="13">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>26.14250727547243</v>
+        <v>26.28893758529298</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>26.14469521446664</v>
+        <v>26.03846168068518</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>27.25621489321116</v>
+        <v>27.6412778013859</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>34.45180029017436</v>
+        <v>34.66552471495358</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>36.88955862240814</v>
+        <v>36.30859016439873</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>33.67207278893467</v>
+        <v>33.86348385203119</v>
       </c>
     </row>
     <row r="16">
@@ -783,7 +783,7 @@
         <v>38.34384368795808</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>37.47370327740444</v>
+        <v>37.47370327740443</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>37.94133313776436</v>
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>36.03263166394589</v>
+        <v>35.99116107206513</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>35.35324601093699</v>
+        <v>35.13519081116886</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>36.13878147745343</v>
+        <v>36.14140362117445</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>40.9504763652664</v>
+        <v>41.02107285888375</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>40.26888341704149</v>
+        <v>40.23949251119285</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>39.81593121530126</v>
+        <v>39.81745800942777</v>
       </c>
     </row>
     <row r="19">
